--- a/biology/Botanique/Rosa_omeiensis/Rosa_omeiensis.xlsx
+++ b/biology/Botanique/Rosa_omeiensis/Rosa_omeiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa omeiensis est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Pimpinellifoliæ, originaire du centre et du sud-ouest de la Chine dans les provinces de Gansu, Guizhou, Hubei, Qinghai, Shaanxi, Sichuan, Yunnan et dans les régions autonomes du Ningxia et du Tibet. On l'y trouve dans les zones montagneuses à des altitudes comprises entre  700 et 4 400 mètres.
 Il en existe quatre formes :
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau pouvant atteindre jusqu'à quatre mètres de haut, souvent très épineux.
 Les feuilles caduques mesurent 3 à 6 cm de long et sont composées de 5 à 13 folioles au bord finement denté.
@@ -554,7 +568,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme Rosa omeiensis f. pteracantha est cultivée comme plante ornementale pour ses jeunes grands aiguillons rouges brillants translucides.
 </t>
